--- a/data/contacts.xlsx
+++ b/data/contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\qr_code_gen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AE5270-C6EA-45FE-9FAF-B99D28C1A7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869EB23-50A6-4B54-8643-CB4C7D5D6A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="0" windowWidth="27735" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J6" sqref="A2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
